--- a/bot/src/.excel_template.xlsx
+++ b/bot/src/.excel_template.xlsx
@@ -271,7 +271,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
@@ -341,6 +341,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection/>
     </xf>
   </cellXfs>
@@ -630,12 +634,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E10000"/>
+  <dimension ref="A1:F10000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6342857142857" defaultRowHeight="15" customHeight="1"/>
@@ -691,11 +695,12 @@
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="8"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
@@ -734,226 +739,226 @@
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="A37" s="10"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
-      <c r="A44" s="10"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="A48" s="10"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="A49" s="10"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" thickBot="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
